--- a/Result_files/V3_Bids_2021-08-09_2021-08-15.xlsx
+++ b/Result_files/V3_Bids_2021-08-09_2021-08-15.xlsx
@@ -548,19 +548,19 @@
         <v>0.27</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G2" t="n">
-        <v>48.593</v>
+        <v>48.09899999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.73899999999998</v>
+        <v>46.745</v>
       </c>
       <c r="J2" t="n">
-        <v>-1516.87662636431</v>
+        <v>2731.892059627811</v>
       </c>
       <c r="K2" t="n">
         <v>80.80002</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4808.761754738663</v>
+        <v>4808.761754738664</v>
       </c>
       <c r="K3" t="n">
         <v>75.300003</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4700.468471041737</v>
+        <v>4700.468471041739</v>
       </c>
       <c r="K4" t="n">
         <v>72.550003</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4716.809848512534</v>
+        <v>4716.809848512533</v>
       </c>
       <c r="K5" t="n">
         <v>72.16999800000001</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="D6" t="n">
         <v>49.8</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4808.63384584908</v>
+        <v>4906.209376325847</v>
       </c>
       <c r="K6" t="n">
         <v>71.19996999999999</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>68</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0.27</v>
       </c>
       <c r="F7" t="n">
-        <v>27.4</v>
+        <v>49.8</v>
       </c>
       <c r="G7" t="n">
         <v>49.99899999999997</v>
       </c>
       <c r="H7" t="n">
-        <v>22.4</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>49.33299999999999</v>
+        <v>49.341</v>
       </c>
       <c r="J7" t="n">
-        <v>-716.5761066801931</v>
+        <v>2570.012850123897</v>
       </c>
       <c r="K7" t="n">
         <v>76.19996999999999</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>68</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -884,19 +884,19 @@
         <v>0.27</v>
       </c>
       <c r="F8" t="n">
-        <v>45.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>49.99899999999997</v>
+        <v>50.029</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>49.8</v>
       </c>
       <c r="I8" t="n">
         <v>49.33299999999991</v>
       </c>
       <c r="J8" t="n">
-        <v>-2505.969330781294</v>
+        <v>-2294.00634019863</v>
       </c>
       <c r="K8" t="n">
         <v>91.150002</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>68</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0.27</v>
       </c>
       <c r="F9" t="n">
-        <v>49.8</v>
+        <v>11.1</v>
       </c>
       <c r="G9" t="n">
         <v>49.99899999999997</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>38.7</v>
       </c>
       <c r="I9" t="n">
-        <v>49.36699999999999</v>
+        <v>49.33299999999991</v>
       </c>
       <c r="J9" t="n">
-        <v>-4104.175515987813</v>
+        <v>-2466.379952620144</v>
       </c>
       <c r="K9" t="n">
         <v>99.91999800000001</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>69.24000000000001</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>0.27</v>
       </c>
       <c r="F10" t="n">
-        <v>48.7</v>
+        <v>24.6</v>
       </c>
       <c r="G10" t="n">
         <v>49.892</v>
       </c>
       <c r="H10" t="n">
-        <v>1.1</v>
+        <v>25.2</v>
       </c>
       <c r="I10" t="n">
         <v>48.4249999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>-2533.359292515502</v>
+        <v>-2472.785059218918</v>
       </c>
       <c r="K10" t="n">
         <v>100.980003</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>69.24000000000001</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1052,19 +1052,19 @@
         <v>0.27</v>
       </c>
       <c r="F11" t="n">
-        <v>49.8</v>
+        <v>44.7</v>
       </c>
       <c r="G11" t="n">
         <v>47.84699999999992</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>46.819</v>
+        <v>46.30399999999992</v>
       </c>
       <c r="J11" t="n">
-        <v>-5541.372731436968</v>
+        <v>-2383.136483610003</v>
       </c>
       <c r="K11" t="n">
         <v>89.269997</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>69.24000000000001</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0.27</v>
       </c>
       <c r="F12" t="n">
-        <v>49.8</v>
+        <v>31.1</v>
       </c>
       <c r="G12" t="n">
         <v>47.84699999999992</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="I12" t="n">
-        <v>46.819</v>
+        <v>46.30399999999992</v>
       </c>
       <c r="J12" t="n">
-        <v>-2503.97793318826</v>
+        <v>-2361.467515209998</v>
       </c>
       <c r="K12" t="n">
         <v>84.80002</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>69.24000000000001</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="D13" t="n">
         <v>49.8</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-3214.55513644751</v>
+        <v>942.9306888211622</v>
       </c>
       <c r="K13" t="n">
         <v>83.66999800000001</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-2297.394271144484</v>
+        <v>-1051.254831146701</v>
       </c>
       <c r="K14" t="n">
         <v>83</v>
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>46.724</v>
+        <v>45.859</v>
       </c>
       <c r="J15" t="n">
-        <v>-3832.748314720236</v>
+        <v>788.0185309574936</v>
       </c>
       <c r="K15" t="n">
         <v>79.43000000000001</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>46.724</v>
+        <v>45.859</v>
       </c>
       <c r="J16" t="n">
-        <v>-3548.553416348127</v>
+        <v>-680.9225810761956</v>
       </c>
       <c r="K16" t="n">
         <v>78</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>46.724</v>
+        <v>45.859</v>
       </c>
       <c r="J17" t="n">
-        <v>-1600.266171396523</v>
+        <v>581.9758003252116</v>
       </c>
       <c r="K17" t="n">
         <v>79.800003</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>63.03999999999995</v>
+        <v>63.04</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1453,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>46.771</v>
+        <v>45.954</v>
       </c>
       <c r="J18" t="n">
-        <v>-3641.459956635216</v>
+        <v>2154.607625303021</v>
       </c>
       <c r="K18" t="n">
         <v>82.860001</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>63.03999999999995</v>
+        <v>63.04</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>0.27</v>
       </c>
       <c r="F19" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>46.90499999999992</v>
+        <v>47.892</v>
       </c>
       <c r="H19" t="n">
-        <v>26.2</v>
+        <v>49.8</v>
       </c>
       <c r="I19" t="n">
         <v>45.9489999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>-2321.437025379999</v>
+        <v>-1523.729859344098</v>
       </c>
       <c r="K19" t="n">
         <v>92.75</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>63.03999999999995</v>
+        <v>63.04</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>0.27</v>
       </c>
       <c r="F20" t="n">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>46.90499999999992</v>
+        <v>47.892</v>
       </c>
       <c r="H20" t="n">
-        <v>33.60000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="I20" t="n">
         <v>45.9489999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>-2313.990076080001</v>
+        <v>-1447.100760044804</v>
       </c>
       <c r="K20" t="n">
         <v>101.440002</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>63.03999999999995</v>
+        <v>63.04</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>47.048</v>
+        <v>47.892</v>
       </c>
       <c r="H21" t="n">
         <v>49.8</v>
@@ -1624,7 +1624,7 @@
         <v>46.04399999999993</v>
       </c>
       <c r="J21" t="n">
-        <v>-2135.353573325521</v>
+        <v>-1400.606795669093</v>
       </c>
       <c r="K21" t="n">
         <v>111.940002</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>76.11</v>
+        <v>58</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>47.048</v>
+        <v>47.892</v>
       </c>
       <c r="H22" t="n">
         <v>49.8</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>76.11</v>
+        <v>58</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>47.89200000000008</v>
+        <v>46.984</v>
       </c>
       <c r="H23" t="n">
         <v>49.8</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>76.11</v>
+        <v>58</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>47.89200000000008</v>
+        <v>47.65</v>
       </c>
       <c r="H24" t="n">
         <v>49.8</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>76.11</v>
+        <v>58</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>47.057</v>
+        <v>46.483</v>
       </c>
       <c r="J25" t="n">
-        <v>2837.052017880932</v>
+        <v>2843.836171233288</v>
       </c>
       <c r="K25" t="n">
         <v>81.41999800000001</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>48.123</v>
+        <v>48.10999999999998</v>
       </c>
       <c r="H26" t="n">
         <v>47.8</v>
@@ -1942,7 +1942,7 @@
         <v>56</v>
       </c>
       <c r="D27" t="n">
-        <v>13.5</v>
+        <v>47.8</v>
       </c>
       <c r="E27" t="n">
         <v>0.2599999999999909</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1942.048693124318</v>
+        <v>5034.036425258862</v>
       </c>
       <c r="K27" t="n">
         <v>59.29999</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4918.026388759988</v>
+        <v>4918.026388759986</v>
       </c>
       <c r="K28" t="n">
         <v>57.779999</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>67.72000000000003</v>
+        <v>73.83</v>
       </c>
       <c r="D30" t="n">
         <v>49.8</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>5081.020648150786</v>
+        <v>5091.283510531619</v>
       </c>
       <c r="K30" t="n">
         <v>58.7</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>67.72000000000003</v>
+        <v>73.83</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2181,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>49.38399999999999</v>
+        <v>49.38400000000002</v>
       </c>
       <c r="J31" t="n">
-        <v>1838.542922628402</v>
+        <v>2654.315803505143</v>
       </c>
       <c r="K31" t="n">
         <v>60.759998</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>67.72000000000003</v>
+        <v>73.83</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2228,19 +2228,19 @@
         <v>0.27</v>
       </c>
       <c r="F32" t="n">
-        <v>26</v>
+        <v>49.8</v>
       </c>
       <c r="G32" t="n">
         <v>49.98099999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>49.38400000000002</v>
       </c>
       <c r="J32" t="n">
-        <v>-2155.12683072454</v>
+        <v>1296.364953409214</v>
       </c>
       <c r="K32" t="n">
         <v>60.84</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>67.72000000000003</v>
+        <v>73.83</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0.27</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G33" t="n">
-        <v>50.039</v>
+        <v>49.98099999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>45.899</v>
       </c>
       <c r="J33" t="n">
-        <v>-10265.08691513536</v>
+        <v>-3623.439436163071</v>
       </c>
       <c r="K33" t="n">
         <v>62.830002</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>82</v>
+        <v>62.21</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>49.93099999999998</v>
+        <v>49.909</v>
       </c>
       <c r="H34" t="n">
         <v>49.8</v>
@@ -2352,7 +2352,7 @@
         <v>45.899</v>
       </c>
       <c r="J34" t="n">
-        <v>-9727.579725377507</v>
+        <v>-11851.91657770355</v>
       </c>
       <c r="K34" t="n">
         <v>64.139999</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>82</v>
+        <v>62.21</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>47.913</v>
+        <v>46.83</v>
       </c>
       <c r="J35" t="n">
-        <v>-6131.244012237477</v>
+        <v>-9144.276640941636</v>
       </c>
       <c r="K35" t="n">
         <v>59.900002</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>82</v>
+        <v>62.21</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2461,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>46.83000000000001</v>
+        <v>46.83000000000003</v>
       </c>
       <c r="J36" t="n">
-        <v>-13726.84051759334</v>
+        <v>-9936.593543620647</v>
       </c>
       <c r="K36" t="n">
         <v>56.139999</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>82</v>
+        <v>62.21</v>
       </c>
       <c r="D37" t="n">
         <v>49.8</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-4664.143732431544</v>
+        <v>-7425.336766443926</v>
       </c>
       <c r="K37" t="n">
         <v>53.700001</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>80</v>
+        <v>93.61</v>
       </c>
       <c r="D38" t="n">
         <v>49.8</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-3985.958229998767</v>
+        <v>-6282.178284236653</v>
       </c>
       <c r="K38" t="n">
         <v>53.529999</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>80</v>
+        <v>93.61</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2629,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>46.73500000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>-8668.683980054682</v>
+        <v>-5704.961104186979</v>
       </c>
       <c r="K39" t="n">
         <v>51.560001</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>80</v>
+        <v>93.61</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>47.395</v>
+        <v>46.73500000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>-4884.413531782834</v>
+        <v>-3782.420465360148</v>
       </c>
       <c r="K40" t="n">
         <v>53.540001</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>80</v>
+        <v>93.61</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>47.395</v>
+        <v>46.73500000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>-3554.64940956697</v>
+        <v>-1486.920297379648</v>
       </c>
       <c r="K41" t="n">
         <v>53.52</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>76.86000000000001</v>
+        <v>62.97</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>47.3</v>
+        <v>46.782</v>
       </c>
       <c r="J42" t="n">
-        <v>-3220.033378846166</v>
+        <v>1440.500078952082</v>
       </c>
       <c r="K42" t="n">
         <v>57.9998</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>76.86000000000001</v>
+        <v>62.97</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2844,19 +2844,19 @@
         <v>0.27</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>47.337</v>
+      </c>
+      <c r="H43" t="n">
         <v>49.8</v>
       </c>
-      <c r="G43" t="n">
-        <v>46.90499999999992</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>47.3</v>
+        <v>46.20999999999998</v>
       </c>
       <c r="J43" t="n">
-        <v>-3726.831869046647</v>
+        <v>-1604.585485882493</v>
       </c>
       <c r="K43" t="n">
         <v>69.80002</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>76.86000000000001</v>
+        <v>62.97</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2900,19 +2900,19 @@
         <v>0.27</v>
       </c>
       <c r="F44" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>46.90499999999992</v>
+        <v>47.337</v>
       </c>
       <c r="H44" t="n">
-        <v>35.4</v>
+        <v>49.8</v>
       </c>
       <c r="I44" t="n">
         <v>46.20999999999998</v>
       </c>
       <c r="J44" t="n">
-        <v>-2337.217356783089</v>
+        <v>-1521.087154327462</v>
       </c>
       <c r="K44" t="n">
         <v>77</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>76.86000000000001</v>
+        <v>62.97</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>47.048</v>
+        <v>47.337</v>
       </c>
       <c r="H45" t="n">
         <v>49.8</v>
@@ -2968,7 +2968,7 @@
         <v>46.59100000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>-1919.772312993129</v>
+        <v>-1478.292978523614</v>
       </c>
       <c r="K45" t="n">
         <v>80.80002</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>47.048</v>
+        <v>47.337</v>
       </c>
       <c r="H46" t="n">
         <v>49.8</v>
@@ -3024,7 +3024,7 @@
         <v>46.59100000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>-1469.675666519825</v>
+        <v>-1469.675666519829</v>
       </c>
       <c r="K46" t="n">
         <v>75.99997999999999</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>47.33699999999999</v>
+        <v>46.99</v>
       </c>
       <c r="H47" t="n">
         <v>49.8</v>
@@ -3080,7 +3080,7 @@
         <v>46.59100000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>-1506.396010977867</v>
+        <v>-1506.396010977862</v>
       </c>
       <c r="K47" t="n">
         <v>69</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>47.656</v>
+        <v>47.643</v>
       </c>
       <c r="H48" t="n">
         <v>49.8</v>
@@ -3180,19 +3180,19 @@
         <v>0.27</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>33.2</v>
       </c>
       <c r="G49" t="n">
-        <v>47.64300000000001</v>
+        <v>47.33699999999993</v>
       </c>
       <c r="H49" t="n">
-        <v>49.8</v>
+        <v>16.6</v>
       </c>
       <c r="I49" t="n">
         <v>47.06799999999993</v>
       </c>
       <c r="J49" t="n">
-        <v>-1690.335519383767</v>
+        <v>1394.108862997663</v>
       </c>
       <c r="K49" t="n">
         <v>58.2</v>
@@ -3239,16 +3239,16 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>48.123</v>
+        <v>48.11799999999999</v>
       </c>
       <c r="H50" t="n">
         <v>47.8</v>
       </c>
       <c r="I50" t="n">
-        <v>46.719</v>
+        <v>46.71899999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>-1455.669926118967</v>
+        <v>-1455.669926118968</v>
       </c>
       <c r="K50" t="n">
         <v>75.400002</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>5067.69924623645</v>
+        <v>5074.514678537978</v>
       </c>
       <c r="K51" t="n">
         <v>72.599998</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>5087.69897175313</v>
+        <v>5112.889358859424</v>
       </c>
       <c r="K54" t="n">
         <v>72.44000200000001</v>
@@ -3516,19 +3516,19 @@
         <v>0.26</v>
       </c>
       <c r="F55" t="n">
-        <v>2.5</v>
+        <v>49.8</v>
       </c>
       <c r="G55" t="n">
         <v>49.98199999999991</v>
       </c>
       <c r="H55" t="n">
-        <v>47.3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>49.30500000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>-2457.849874520001</v>
+        <v>2596.057730064043</v>
       </c>
       <c r="K55" t="n">
         <v>76.44000200000001</v>
@@ -3572,19 +3572,19 @@
         <v>0.26</v>
       </c>
       <c r="F56" t="n">
-        <v>49.8</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="G56" t="n">
         <v>49.98199999999991</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>42.2</v>
       </c>
       <c r="I56" t="n">
-        <v>49.341</v>
+        <v>49.30500000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>-2526.757393951967</v>
+        <v>-2457.427048416296</v>
       </c>
       <c r="K56" t="n">
         <v>90.540001</v>
@@ -3628,19 +3628,19 @@
         <v>0.27</v>
       </c>
       <c r="F57" t="n">
-        <v>37.1</v>
+        <v>26.4</v>
       </c>
       <c r="G57" t="n">
         <v>49.98199999999991</v>
       </c>
       <c r="H57" t="n">
-        <v>12.7</v>
+        <v>23.4</v>
       </c>
       <c r="I57" t="n">
         <v>49.30500000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>-5875.349348929538</v>
+        <v>-2473.903353139608</v>
       </c>
       <c r="K57" t="n">
         <v>99.959999</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>72.00000000000001</v>
+        <v>72</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3684,19 +3684,19 @@
         <v>0.26</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G58" t="n">
-        <v>49.931</v>
+        <v>49.87399999999997</v>
       </c>
       <c r="H58" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>48.39799999999997</v>
       </c>
       <c r="J58" t="n">
-        <v>-9096.731846115246</v>
+        <v>-3465.08729874309</v>
       </c>
       <c r="K58" t="n">
         <v>102</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>72.00000000000001</v>
+        <v>72</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>46.31000000000009</v>
+        <v>46.28799999999995</v>
       </c>
       <c r="J59" t="n">
-        <v>-7044.183277789292</v>
+        <v>-7919.685930276681</v>
       </c>
       <c r="K59" t="n">
         <v>99.59998</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>72.00000000000001</v>
+        <v>72</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>46.31</v>
+        <v>46.28799999999995</v>
       </c>
       <c r="J60" t="n">
-        <v>-10949.60438573338</v>
+        <v>-10203.68571203503</v>
       </c>
       <c r="K60" t="n">
         <v>91.68000000000001</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>72.00000000000001</v>
+        <v>72</v>
       </c>
       <c r="D61" t="n">
         <v>49.8</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-6581.812500420982</v>
+        <v>-8594.13646821904</v>
       </c>
       <c r="K61" t="n">
         <v>89.980003</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-9864.900400951585</v>
+        <v>-6242.182940427836</v>
       </c>
       <c r="K62" t="n">
         <v>86.83000199999999</v>
@@ -3973,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>45.859</v>
+        <v>45.83699999999993</v>
       </c>
       <c r="J63" t="n">
-        <v>-8010.323046675647</v>
+        <v>-6371.892172959487</v>
       </c>
       <c r="K63" t="n">
         <v>82.400002</v>
@@ -4029,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>45.859</v>
+        <v>45.83699999999993</v>
       </c>
       <c r="J64" t="n">
-        <v>-8402.175060494466</v>
+        <v>-4369.730960322499</v>
       </c>
       <c r="K64" t="n">
         <v>81.989998</v>
@@ -4085,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>45.859</v>
+        <v>45.83699999999993</v>
       </c>
       <c r="J65" t="n">
-        <v>-3369.311850475002</v>
+        <v>-1655.880197248894</v>
       </c>
       <c r="K65" t="n">
         <v>83.43000000000001</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>65.84000000000003</v>
+        <v>65.84</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>45.95400000000009</v>
+        <v>45.93199999999996</v>
       </c>
       <c r="J66" t="n">
-        <v>-3918.051671065897</v>
+        <v>1871.48909892259</v>
       </c>
       <c r="K66" t="n">
         <v>83.410004</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>65.84000000000003</v>
+        <v>65.84</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0.26</v>
       </c>
       <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>47.337</v>
+      </c>
+      <c r="H67" t="n">
         <v>49.8</v>
       </c>
-      <c r="G67" t="n">
-        <v>46.90499999999992</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>45.954</v>
+        <v>45.93199999999996</v>
       </c>
       <c r="J67" t="n">
-        <v>-2863.683967947299</v>
+        <v>-1487.834507764215</v>
       </c>
       <c r="K67" t="n">
         <v>91.730003</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>65.84000000000003</v>
+        <v>65.84</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -4244,19 +4244,19 @@
         <v>0.26</v>
       </c>
       <c r="F68" t="n">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>46.90499999999992</v>
+        <v>47.337</v>
       </c>
       <c r="H68" t="n">
-        <v>29.6</v>
+        <v>49.8</v>
       </c>
       <c r="I68" t="n">
         <v>45.93199999999996</v>
       </c>
       <c r="J68" t="n">
-        <v>-2309.00566648</v>
+        <v>-1423.526724700993</v>
       </c>
       <c r="K68" t="n">
         <v>103.410004</v>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>65.84000000000003</v>
+        <v>65.84</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>47.048</v>
+        <v>47.337</v>
       </c>
       <c r="H69" t="n">
         <v>49.8</v>
@@ -4312,7 +4312,7 @@
         <v>46.02699999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>-1865.13425561557</v>
+        <v>-1379.786294521914</v>
       </c>
       <c r="K69" t="n">
         <v>109</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>47.048</v>
+        <v>47.337</v>
       </c>
       <c r="H70" t="n">
         <v>49.8</v>
@@ -4368,7 +4368,7 @@
         <v>46.02699999999999</v>
       </c>
       <c r="J70" t="n">
-        <v>-1373.966068976095</v>
+        <v>-1373.966068976093</v>
       </c>
       <c r="K70" t="n">
         <v>109</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>47.33699999999999</v>
+        <v>46.99</v>
       </c>
       <c r="H71" t="n">
         <v>49.8</v>
@@ -4424,7 +4424,7 @@
         <v>46.435</v>
       </c>
       <c r="J71" t="n">
-        <v>-1433.92559095647</v>
+        <v>-1433.925590956472</v>
       </c>
       <c r="K71" t="n">
         <v>104.82</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>47.656</v>
+        <v>47.65000000000001</v>
       </c>
       <c r="H72" t="n">
         <v>49.8</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>47.65</v>
+        <v>47.33699999999993</v>
       </c>
       <c r="H73" t="n">
         <v>49.8</v>
@@ -4580,19 +4580,19 @@
         <v>0.26</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G74" t="n">
-        <v>48.571</v>
+        <v>47.57999999999998</v>
       </c>
       <c r="H74" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>46.71899999999999</v>
+        <v>46.73</v>
       </c>
       <c r="J74" t="n">
-        <v>-1465.430402301222</v>
+        <v>2990.622333613929</v>
       </c>
       <c r="K74" t="n">
         <v>80.80002</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>65</v>
+        <v>67.72</v>
       </c>
       <c r="D78" t="n">
         <v>49.8</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>4934.304997988725</v>
+        <v>5012.40191580157</v>
       </c>
       <c r="K78" t="n">
         <v>71.19996999999999</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>65</v>
+        <v>67.72</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -4860,19 +4860,19 @@
         <v>0.26</v>
       </c>
       <c r="F79" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>49.99999999999999</v>
+        <v>50</v>
       </c>
       <c r="H79" t="n">
-        <v>45.5</v>
+        <v>49.8</v>
       </c>
       <c r="I79" t="n">
         <v>49.30500000000001</v>
       </c>
       <c r="J79" t="n">
-        <v>-2423.599354214678</v>
+        <v>-2010.344180395667</v>
       </c>
       <c r="K79" t="n">
         <v>76.19996999999999</v>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>65</v>
+        <v>67.72</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -4916,19 +4916,19 @@
         <v>0.26</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="G80" t="n">
-        <v>52.903</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>49.8</v>
+        <v>25.4</v>
       </c>
       <c r="I80" t="n">
         <v>49.30500000000001</v>
       </c>
       <c r="J80" t="n">
-        <v>-5397.246043593053</v>
+        <v>-2262.403168840002</v>
       </c>
       <c r="K80" t="n">
         <v>91.150002</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>65</v>
+        <v>67.72</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -4972,19 +4972,19 @@
         <v>0.27</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G81" t="n">
-        <v>52.903</v>
+        <v>47.60699999999991</v>
       </c>
       <c r="H81" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>49.30500000000001</v>
+        <v>49.321</v>
       </c>
       <c r="J81" t="n">
-        <v>-6945.267932983493</v>
+        <v>-2908.489037938833</v>
       </c>
       <c r="K81" t="n">
         <v>99.91999800000001</v>
@@ -5028,19 +5028,19 @@
         <v>0.26</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G82" t="n">
-        <v>52.834</v>
+        <v>47.60699999999991</v>
       </c>
       <c r="H82" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>48.39799999999999</v>
+        <v>48.413</v>
       </c>
       <c r="J82" t="n">
-        <v>-8937.09908632899</v>
+        <v>-5962.434611669861</v>
       </c>
       <c r="K82" t="n">
         <v>100.980003</v>
@@ -5093,10 +5093,10 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>46.31</v>
+        <v>46.297</v>
       </c>
       <c r="J83" t="n">
-        <v>-10972.85179758195</v>
+        <v>-9658.369239864413</v>
       </c>
       <c r="K83" t="n">
         <v>89.269997</v>
@@ -5149,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>46.31000000000003</v>
+        <v>46.297</v>
       </c>
       <c r="J84" t="n">
-        <v>-8741.007577273796</v>
+        <v>-7193.940247351644</v>
       </c>
       <c r="K84" t="n">
         <v>84.80002</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-5946.966210065237</v>
+        <v>-3986.553507847051</v>
       </c>
       <c r="K85" t="n">
         <v>83.66999800000001</v>
@@ -5243,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>77.24000000000001</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="D86" t="n">
         <v>47.8</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-2916.362332078313</v>
+        <v>-3948.03164930357</v>
       </c>
       <c r="K86" t="n">
         <v>83</v>
@@ -5299,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>77.24000000000001</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>45.85900000000001</v>
+        <v>45.846</v>
       </c>
       <c r="J87" t="n">
-        <v>-9612.901602522381</v>
+        <v>-4656.23324032671</v>
       </c>
       <c r="K87" t="n">
         <v>79.43000000000001</v>
@@ -5355,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>77.24000000000001</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -5373,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>45.859</v>
+        <v>45.846</v>
       </c>
       <c r="J88" t="n">
-        <v>-7768.933590769955</v>
+        <v>-2369.214744422386</v>
       </c>
       <c r="K88" t="n">
         <v>78</v>
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>77.24000000000001</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -5420,19 +5420,19 @@
         <v>0.26</v>
       </c>
       <c r="F89" t="n">
-        <v>47.8</v>
+        <v>26.7</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>21.1</v>
       </c>
       <c r="I89" t="n">
-        <v>45.859</v>
+        <v>45.83699999999993</v>
       </c>
       <c r="J89" t="n">
-        <v>-6040.197283016544</v>
+        <v>-2077.695682329999</v>
       </c>
       <c r="K89" t="n">
         <v>79.800003</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>76.86</v>
+        <v>65.84</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>45.954</v>
+        <v>45.941</v>
       </c>
       <c r="J90" t="n">
-        <v>-5764.2259674424</v>
+        <v>1019.586693299155</v>
       </c>
       <c r="K90" t="n">
         <v>82.860001</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>76.86</v>
+        <v>65.84</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -5532,19 +5532,19 @@
         <v>0.26</v>
       </c>
       <c r="F91" t="n">
-        <v>49.8</v>
+        <v>37.9</v>
       </c>
       <c r="G91" t="n">
         <v>46.90499999999992</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="I91" t="n">
-        <v>45.95400000000004</v>
+        <v>45.93199999999996</v>
       </c>
       <c r="J91" t="n">
-        <v>-2431.093923880343</v>
+        <v>1978.796750172746</v>
       </c>
       <c r="K91" t="n">
         <v>92.75</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>76.86</v>
+        <v>65.84</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -5588,19 +5588,19 @@
         <v>0.26</v>
       </c>
       <c r="F92" t="n">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>46.90499999999999</v>
+        <v>47.871</v>
       </c>
       <c r="H92" t="n">
-        <v>36.4</v>
+        <v>49.8</v>
       </c>
       <c r="I92" t="n">
         <v>45.93199999999996</v>
       </c>
       <c r="J92" t="n">
-        <v>-2318.0077788424</v>
+        <v>-1411.452731302054</v>
       </c>
       <c r="K92" t="n">
         <v>101.440002</v>
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>76.86</v>
+        <v>65.84</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>50.468</v>
+        <v>47.871</v>
       </c>
       <c r="H93" t="n">
         <v>49.8</v>
@@ -5656,7 +5656,7 @@
         <v>46.02699999999999</v>
       </c>
       <c r="J93" t="n">
-        <v>-1859.489866356522</v>
+        <v>-1329.721243006275</v>
       </c>
       <c r="K93" t="n">
         <v>111.940002</v>
@@ -5691,19 +5691,19 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>42.16</v>
+        <v>56</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2599999999999909</v>
+        <v>0.27</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>50.46800000000005</v>
+        <v>47.871</v>
       </c>
       <c r="H94" t="n">
         <v>49.8</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>42.16</v>
+        <v>56</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>50.46800000000005</v>
+        <v>47.871</v>
       </c>
       <c r="H95" t="n">
         <v>49.8</v>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>42.16</v>
+        <v>56</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>53.088</v>
+        <v>47.871</v>
       </c>
       <c r="H96" t="n">
         <v>49.8</v>
@@ -5824,7 +5824,7 @@
         <v>46.435</v>
       </c>
       <c r="J96" t="n">
-        <v>-1414.814278493689</v>
+        <v>-1414.81427849369</v>
       </c>
       <c r="K96" t="n">
         <v>93.989998</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>42.16</v>
+        <v>56</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>53.08800000000008</v>
+        <v>47.871</v>
       </c>
       <c r="H97" t="n">
         <v>49.8</v>
@@ -5880,7 +5880,7 @@
         <v>46.435</v>
       </c>
       <c r="J97" t="n">
-        <v>-1502.787204309667</v>
+        <v>-1502.787204309664</v>
       </c>
       <c r="K97" t="n">
         <v>81.41999800000001</v>
@@ -5915,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>59.20000000000005</v>
+        <v>59.2</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -5924,19 +5924,19 @@
         <v>0.26</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G98" t="n">
-        <v>48.59300000000002</v>
+        <v>47.83999999999997</v>
       </c>
       <c r="H98" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>46.719</v>
+        <v>46.745</v>
       </c>
       <c r="J98" t="n">
-        <v>-1474.838624702598</v>
+        <v>2992.103693151973</v>
       </c>
       <c r="K98" t="n">
         <v>75.400002</v>
@@ -5971,13 +5971,13 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>59.20000000000005</v>
+        <v>59.2</v>
       </c>
       <c r="D99" t="n">
-        <v>44.1</v>
+        <v>47.8</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1299999999999772</v>
+        <v>0.13</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>4741.481299912507</v>
+        <v>5084.561862184336</v>
       </c>
       <c r="K99" t="n">
         <v>72.599998</v>
@@ -6027,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>59.20000000000005</v>
+        <v>59.2</v>
       </c>
       <c r="D100" t="n">
         <v>47.8</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>4945.959018428352</v>
+        <v>4945.959018428355</v>
       </c>
       <c r="K100" t="n">
         <v>69.94000200000001</v>
@@ -6083,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>59.20000000000005</v>
+        <v>59.2</v>
       </c>
       <c r="D101" t="n">
         <v>47.8</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>4898.771254302463</v>
+        <v>4898.771254302462</v>
       </c>
       <c r="K101" t="n">
         <v>69.7</v>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>60.4</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="D102" t="n">
         <v>49.8</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>60.4</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>49.30500000000001</v>
       </c>
       <c r="J103" t="n">
-        <v>-2242.758241909685</v>
+        <v>-2037.85197773277</v>
       </c>
       <c r="K103" t="n">
         <v>76.44000200000001</v>
@@ -6251,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>60.4</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -6260,19 +6260,19 @@
         <v>0.2600000000002369</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="G104" t="n">
-        <v>50.03900000000002</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>49.8</v>
+        <v>43.3</v>
       </c>
       <c r="I104" t="n">
         <v>49.30500000000001</v>
       </c>
       <c r="J104" t="n">
-        <v>-2816.619391620102</v>
+        <v>-2392.880944120001</v>
       </c>
       <c r="K104" t="n">
         <v>90.540001</v>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>60.4</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -6316,19 +6316,19 @@
         <v>0.26</v>
       </c>
       <c r="F105" t="n">
-        <v>28.1</v>
+        <v>15.8</v>
       </c>
       <c r="G105" t="n">
         <v>47.60699999999991</v>
       </c>
       <c r="H105" t="n">
-        <v>21.7</v>
+        <v>34</v>
       </c>
       <c r="I105" t="n">
         <v>49.30500000000001</v>
       </c>
       <c r="J105" t="n">
-        <v>-2504.307409120001</v>
+        <v>-2483.64050632</v>
       </c>
       <c r="K105" t="n">
         <v>99.959999</v>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>62.21</v>
+        <v>72</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -6372,19 +6372,19 @@
         <v>0.26</v>
       </c>
       <c r="F106" t="n">
-        <v>49.8</v>
+        <v>45.40000000000001</v>
       </c>
       <c r="G106" t="n">
         <v>47.60699999999991</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="I106" t="n">
-        <v>48.93899999999999</v>
+        <v>48.39799999999997</v>
       </c>
       <c r="J106" t="n">
-        <v>-9247.433634049585</v>
+        <v>-2527.24192946</v>
       </c>
       <c r="K106" t="n">
         <v>102</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>62.21</v>
+        <v>72</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -6437,10 +6437,10 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>46.819</v>
+        <v>46.31</v>
       </c>
       <c r="J107" t="n">
-        <v>-10867.46064191616</v>
+        <v>-8950.168828668573</v>
       </c>
       <c r="K107" t="n">
         <v>99.59998</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>62.21</v>
+        <v>72</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -6484,19 +6484,19 @@
         <v>0.26</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G108" t="n">
-        <v>47.876</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>46.28799999999995</v>
+        <v>46.31</v>
       </c>
       <c r="J108" t="n">
-        <v>-15844.71256547038</v>
+        <v>-10331.25725880427</v>
       </c>
       <c r="K108" t="n">
         <v>91.68000000000001</v>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>62.21</v>
+        <v>72</v>
       </c>
       <c r="D109" t="n">
         <v>49.8</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-7770.14570940252</v>
+        <v>-8392.5320526338</v>
       </c>
       <c r="K109" t="n">
         <v>89.980003</v>
@@ -6593,7 +6593,7 @@
         <v>47.8</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2000000000000455</v>
+        <v>0.2</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-8767.15981010822</v>
+        <v>-7358.432646033977</v>
       </c>
       <c r="K110" t="n">
         <v>86.83000199999999</v>
@@ -6661,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>46.724</v>
+        <v>45.859</v>
       </c>
       <c r="J111" t="n">
-        <v>-8033.297277816142</v>
+        <v>-4923.779192251575</v>
       </c>
       <c r="K111" t="n">
         <v>82.400002</v>
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>46.724</v>
+        <v>45.859</v>
       </c>
       <c r="J112" t="n">
-        <v>-4263.865483051495</v>
+        <v>-4125.255441669674</v>
       </c>
       <c r="K112" t="n">
         <v>81.989998</v>
@@ -6764,19 +6764,19 @@
         <v>0.26</v>
       </c>
       <c r="F113" t="n">
-        <v>47.8</v>
+        <v>44.3</v>
       </c>
       <c r="G113" t="n">
-        <v>47.18999999999999</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I113" t="n">
-        <v>46.724</v>
+        <v>45.83699999999993</v>
       </c>
       <c r="J113" t="n">
-        <v>-4038.270929259201</v>
+        <v>-1843.450517686714</v>
       </c>
       <c r="K113" t="n">
         <v>83.43000000000001</v>
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>62.97</v>
+        <v>65.84</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -6829,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>46.771</v>
+        <v>45.954</v>
       </c>
       <c r="J114" t="n">
-        <v>-3074.230158943703</v>
+        <v>1429.07848566028</v>
       </c>
       <c r="K114" t="n">
         <v>83.410004</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>62.97</v>
+        <v>65.84</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -6876,19 +6876,19 @@
         <v>0.26</v>
       </c>
       <c r="F115" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>46.90499999999992</v>
+        <v>47.892</v>
       </c>
       <c r="H115" t="n">
-        <v>5.600000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="I115" t="n">
         <v>45.93199999999996</v>
       </c>
       <c r="J115" t="n">
-        <v>-2383.52565228</v>
+        <v>-1521.355216117259</v>
       </c>
       <c r="K115" t="n">
         <v>91.730003</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>62.97</v>
+        <v>65.84</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -6932,19 +6932,19 @@
         <v>0.26</v>
       </c>
       <c r="F116" t="n">
-        <v>21.29999999999999</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>46.90499999999999</v>
+        <v>47.892</v>
       </c>
       <c r="H116" t="n">
-        <v>28.50000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="I116" t="n">
         <v>45.93199999999996</v>
       </c>
       <c r="J116" t="n">
-        <v>-2340.180383430001</v>
+        <v>-1436.568544522592</v>
       </c>
       <c r="K116" t="n">
         <v>103.410004</v>
@@ -6979,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>62.97</v>
+        <v>65.84</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>50.46800000000005</v>
+        <v>47.892</v>
       </c>
       <c r="H117" t="n">
         <v>49.8</v>
@@ -7000,7 +7000,7 @@
         <v>46.02699999999999</v>
       </c>
       <c r="J117" t="n">
-        <v>-1922.019125536207</v>
+        <v>-1388.025794963787</v>
       </c>
       <c r="K117" t="n">
         <v>109</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>50.46799999999999</v>
+        <v>47.892</v>
       </c>
       <c r="H118" t="n">
         <v>49.8</v>
@@ -7056,7 +7056,7 @@
         <v>46.02699999999999</v>
       </c>
       <c r="J118" t="n">
-        <v>-1393.215042750933</v>
+        <v>-1393.215042750935</v>
       </c>
       <c r="K118" t="n">
         <v>109</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>50.46800000000005</v>
+        <v>47.892</v>
       </c>
       <c r="H119" t="n">
         <v>49.8</v>
@@ -7112,7 +7112,7 @@
         <v>46.435</v>
       </c>
       <c r="J119" t="n">
-        <v>-1469.868857656076</v>
+        <v>-1469.868857656074</v>
       </c>
       <c r="K119" t="n">
         <v>104.82</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>53.088</v>
+        <v>47.892</v>
       </c>
       <c r="H120" t="n">
         <v>49.8</v>
@@ -7221,10 +7221,10 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>47.057</v>
+        <v>46.483</v>
       </c>
       <c r="J121" t="n">
-        <v>2802.265418007158</v>
+        <v>2809.094559786769</v>
       </c>
       <c r="K121" t="n">
         <v>83.94000200000001</v>
@@ -7277,10 +7277,10 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>46.745</v>
+        <v>47.988</v>
       </c>
       <c r="J122" t="n">
-        <v>2803.109012737727</v>
+        <v>2809.956002194049</v>
       </c>
       <c r="K122" t="n">
         <v>48.349998</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>4927.324365907402</v>
+        <v>4927.324365907401</v>
       </c>
       <c r="K123" t="n">
         <v>49.810001</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>4764.128135129254</v>
+        <v>4764.128135129257</v>
       </c>
       <c r="K124" t="n">
         <v>48.25</v>
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>60.39999999999964</v>
+        <v>67.72</v>
       </c>
       <c r="D126" t="n">
         <v>49.8</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>4874.76467413867</v>
+        <v>4895.537181380109</v>
       </c>
       <c r="K126" t="n">
         <v>46.209999</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>60.39999999999964</v>
+        <v>67.72</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -7548,19 +7548,19 @@
         <v>0.27</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>50.03900000000001</v>
       </c>
       <c r="H127" t="n">
-        <v>48.8</v>
+        <v>49.8</v>
       </c>
       <c r="I127" t="n">
         <v>49.34100000000001</v>
       </c>
       <c r="J127" t="n">
-        <v>-2415.166984491855</v>
+        <v>-2054.885701707499</v>
       </c>
       <c r="K127" t="n">
         <v>46.650002</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>60.39999999999964</v>
+        <v>67.72</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -7604,19 +7604,19 @@
         <v>0.27</v>
       </c>
       <c r="F128" t="n">
-        <v>15.5</v>
+        <v>8.6</v>
       </c>
       <c r="G128" t="n">
-        <v>50.01599999999998</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>34.3</v>
+        <v>41.2</v>
       </c>
       <c r="I128" t="n">
         <v>49.34100000000001</v>
       </c>
       <c r="J128" t="n">
-        <v>-2338.889897013177</v>
+        <v>-2397.262588700001</v>
       </c>
       <c r="K128" t="n">
         <v>50.130001</v>
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>60.39999999999964</v>
+        <v>67.72</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -7660,19 +7660,19 @@
         <v>0.27</v>
       </c>
       <c r="F129" t="n">
-        <v>8.200000000000001</v>
+        <v>31.5</v>
       </c>
       <c r="G129" t="n">
-        <v>47.60699999999999</v>
+        <v>47.60699999999991</v>
       </c>
       <c r="H129" t="n">
-        <v>41.6</v>
+        <v>18.3</v>
       </c>
       <c r="I129" t="n">
         <v>49.34100000000001</v>
       </c>
       <c r="J129" t="n">
-        <v>-2483.184880185193</v>
+        <v>-2501.838969899999</v>
       </c>
       <c r="K129" t="n">
         <v>52.610001</v>
@@ -7704,7 +7704,7 @@
         <v>44422.33333333334</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
         <v>60.64</v>
@@ -7716,19 +7716,19 @@
         <v>0.27</v>
       </c>
       <c r="F130" t="n">
-        <v>40.90000000000001</v>
+        <v>33.5</v>
       </c>
       <c r="G130" t="n">
         <v>47.60699999999991</v>
       </c>
       <c r="H130" t="n">
-        <v>8.9</v>
+        <v>14.3</v>
       </c>
       <c r="I130" t="n">
         <v>48.43299999999999</v>
       </c>
       <c r="J130" t="n">
-        <v>-2499.846664986476</v>
+        <v>-2466.047438850001</v>
       </c>
       <c r="K130" t="n">
         <v>53.630001</v>
@@ -7760,7 +7760,7 @@
         <v>44422.375</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
         <v>60.64</v>
@@ -7772,19 +7772,19 @@
         <v>0.27</v>
       </c>
       <c r="F131" t="n">
-        <v>49.8</v>
+        <v>30.9</v>
       </c>
       <c r="G131" t="n">
         <v>47.60699999999991</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="I131" t="n">
         <v>46.31</v>
       </c>
       <c r="J131" t="n">
-        <v>-4276.184755313639</v>
+        <v>-2348.400805320001</v>
       </c>
       <c r="K131" t="n">
         <v>53.130001</v>
@@ -7816,7 +7816,7 @@
         <v>44422.41666666666</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
         <v>60.64</v>
@@ -7828,19 +7828,19 @@
         <v>0.27</v>
       </c>
       <c r="F132" t="n">
-        <v>49.8</v>
+        <v>35.5</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="I132" t="n">
         <v>46.31</v>
       </c>
       <c r="J132" t="n">
-        <v>-5731.288163336229</v>
+        <v>-2000.205191349999</v>
       </c>
       <c r="K132" t="n">
         <v>52.619999</v>
@@ -7872,13 +7872,13 @@
         <v>44422.45833333334</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>60.64</v>
       </c>
       <c r="D133" t="n">
-        <v>49.8</v>
+        <v>33.7</v>
       </c>
       <c r="E133" t="n">
         <v>0.2599999999999909</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-2367.516791697642</v>
+        <v>-82.37503184666184</v>
       </c>
       <c r="K133" t="n">
         <v>50.310001</v>
@@ -7934,7 +7934,7 @@
         <v>74</v>
       </c>
       <c r="D134" t="n">
-        <v>35.49999999999998</v>
+        <v>47.8</v>
       </c>
       <c r="E134" t="n">
         <v>0.2599999999999909</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-100.9598594999999</v>
+        <v>2705.387662604515</v>
       </c>
       <c r="K134" t="n">
         <v>48.700001</v>
@@ -7996,19 +7996,19 @@
         <v>0.27</v>
       </c>
       <c r="F135" t="n">
-        <v>42.8</v>
+        <v>16.3</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>5</v>
+        <v>31.5</v>
       </c>
       <c r="I135" t="n">
         <v>45.85899999999998</v>
       </c>
       <c r="J135" t="n">
-        <v>-1931.820289670364</v>
+        <v>-2160.58751664772</v>
       </c>
       <c r="K135" t="n">
         <v>43.48</v>
@@ -8052,19 +8052,19 @@
         <v>0.27</v>
       </c>
       <c r="F136" t="n">
-        <v>47.8</v>
+        <v>15.5</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>32.3</v>
       </c>
       <c r="I136" t="n">
         <v>45.85899999999998</v>
       </c>
       <c r="J136" t="n">
-        <v>-6257.137334690351</v>
+        <v>-2168.650493950001</v>
       </c>
       <c r="K136" t="n">
         <v>40.27</v>
@@ -8108,19 +8108,19 @@
         <v>0.27</v>
       </c>
       <c r="F137" t="n">
-        <v>47.8</v>
+        <v>2.3</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="I137" t="n">
-        <v>47.395</v>
+        <v>45.85899999999998</v>
       </c>
       <c r="J137" t="n">
-        <v>-5307.777839231156</v>
+        <v>-2280.369400245911</v>
       </c>
       <c r="K137" t="n">
         <v>43.5</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>80</v>
+        <v>79.68000000000001</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -8173,10 +8173,10 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>45.95400000000001</v>
+        <v>47.3</v>
       </c>
       <c r="J138" t="n">
-        <v>-2050.536433938925</v>
+        <v>2401.587144925217</v>
       </c>
       <c r="K138" t="n">
         <v>46.860001</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>80</v>
+        <v>79.68000000000001</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -8220,19 +8220,19 @@
         <v>0.27</v>
       </c>
       <c r="F139" t="n">
-        <v>35.7</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>46.90499999999992</v>
+        <v>47.871</v>
       </c>
       <c r="H139" t="n">
-        <v>14.1</v>
+        <v>49.8</v>
       </c>
       <c r="I139" t="n">
         <v>45.95400000000001</v>
       </c>
       <c r="J139" t="n">
-        <v>-2359.647885930002</v>
+        <v>-1530.278009271525</v>
       </c>
       <c r="K139" t="n">
         <v>53.529999</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>80</v>
+        <v>79.68000000000001</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -8276,19 +8276,19 @@
         <v>0.27</v>
       </c>
       <c r="F140" t="n">
-        <v>6.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>46.90499999999992</v>
+        <v>47.871</v>
       </c>
       <c r="H140" t="n">
-        <v>43.7</v>
+        <v>49.8</v>
       </c>
       <c r="I140" t="n">
         <v>45.95400000000001</v>
       </c>
       <c r="J140" t="n">
-        <v>-2318.719733264234</v>
+        <v>-1435.993686915598</v>
       </c>
       <c r="K140" t="n">
         <v>73.459999</v>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>80</v>
+        <v>79.68000000000001</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>50.468</v>
+        <v>47.871</v>
       </c>
       <c r="H141" t="n">
         <v>49.8</v>
@@ -8344,7 +8344,7 @@
         <v>46.04899999999992</v>
       </c>
       <c r="J141" t="n">
-        <v>-2080.634355274039</v>
+        <v>-1352.14273585919</v>
       </c>
       <c r="K141" t="n">
         <v>92.599998</v>
@@ -8385,13 +8385,13 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2599999999999909</v>
+        <v>0.27</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>50.468</v>
+        <v>47.871</v>
       </c>
       <c r="H142" t="n">
         <v>49.8</v>
@@ -8400,7 +8400,7 @@
         <v>46.04899999999992</v>
       </c>
       <c r="J142" t="n">
-        <v>-1334.079651417104</v>
+        <v>-1334.0796514171</v>
       </c>
       <c r="K142" t="n">
         <v>103.470001</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>50.46800000000007</v>
+        <v>47.871</v>
       </c>
       <c r="H143" t="n">
         <v>49.8</v>
@@ -8456,7 +8456,7 @@
         <v>46.483</v>
       </c>
       <c r="J143" t="n">
-        <v>-1380.98893706219</v>
+        <v>-1380.988937062187</v>
       </c>
       <c r="K143" t="n">
         <v>101</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>53.08799999999999</v>
+        <v>47.871</v>
       </c>
       <c r="H144" t="n">
         <v>49.8</v>
@@ -8512,7 +8512,7 @@
         <v>46.483</v>
       </c>
       <c r="J144" t="n">
-        <v>-1466.844159241293</v>
+        <v>-1466.844159241294</v>
       </c>
       <c r="K144" t="n">
         <v>85</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>53.088</v>
+        <v>47.871</v>
       </c>
       <c r="H145" t="n">
         <v>49.8</v>
@@ -8568,7 +8568,7 @@
         <v>46.483</v>
       </c>
       <c r="J145" t="n">
-        <v>-1553.46882323191</v>
+        <v>-1553.468823231911</v>
       </c>
       <c r="K145" t="n">
         <v>69.620003</v>
@@ -8603,7 +8603,7 @@
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>56.00000000000001</v>
+        <v>56</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>48.123</v>
+        <v>48.11</v>
       </c>
       <c r="H146" t="n">
         <v>47.8</v>
@@ -8624,7 +8624,7 @@
         <v>46.71899999999999</v>
       </c>
       <c r="J146" t="n">
-        <v>-1486.34362259178</v>
+        <v>-1486.343622591778</v>
       </c>
       <c r="K146" t="n">
         <v>79.139999</v>
@@ -8659,13 +8659,13 @@
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>56.00000000000001</v>
+        <v>56</v>
       </c>
       <c r="D147" t="n">
         <v>47.8</v>
       </c>
       <c r="E147" t="n">
-        <v>0.2699999999999819</v>
+        <v>0.25</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>754.9202353480799</v>
+        <v>5204.845151538556</v>
       </c>
       <c r="K147" t="n">
         <v>74.910004</v>
@@ -8715,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>56.00000000000001</v>
+        <v>56</v>
       </c>
       <c r="D148" t="n">
         <v>47.8</v>
@@ -8771,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>56.00000000000001</v>
+        <v>56</v>
       </c>
       <c r="D149" t="n">
         <v>47.8</v>
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>65.82999999999993</v>
+        <v>68</v>
       </c>
       <c r="D150" t="n">
         <v>49.8</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>65.82999999999993</v>
+        <v>68</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -8901,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>52.35600000000002</v>
+        <v>49.333</v>
       </c>
       <c r="J151" t="n">
-        <v>1998.988251447909</v>
+        <v>2266.015019870673</v>
       </c>
       <c r="K151" t="n">
         <v>76.730003</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>65.82999999999993</v>
+        <v>68</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -8948,19 +8948,19 @@
         <v>0.26</v>
       </c>
       <c r="F152" t="n">
-        <v>36.09999999999997</v>
+        <v>29.9</v>
       </c>
       <c r="G152" t="n">
         <v>49.99899999999997</v>
       </c>
       <c r="H152" t="n">
-        <v>13.70000000000003</v>
+        <v>19.9</v>
       </c>
       <c r="I152" t="n">
         <v>49.30500000000001</v>
       </c>
       <c r="J152" t="n">
-        <v>-2490.070770259998</v>
+        <v>-2489.197084227456</v>
       </c>
       <c r="K152" t="n">
         <v>93.879997</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>65.82999999999993</v>
+        <v>68</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -9013,10 +9013,10 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>52.356</v>
+        <v>49.333</v>
       </c>
       <c r="J153" t="n">
-        <v>-4582.940499292214</v>
+        <v>-4816.610218506933</v>
       </c>
       <c r="K153" t="n">
         <v>101.870003</v>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>69.24000000000001</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -9069,10 +9069,10 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>51.51600000000002</v>
+        <v>48.425</v>
       </c>
       <c r="J154" t="n">
-        <v>-6491.500248673847</v>
+        <v>-7853.588361315901</v>
       </c>
       <c r="K154" t="n">
         <v>101.589996</v>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>69.24000000000001</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -9125,10 +9125,10 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>48.563</v>
+        <v>46.304</v>
       </c>
       <c r="J155" t="n">
-        <v>-10657.94586020451</v>
+        <v>-10311.03632482792</v>
       </c>
       <c r="K155" t="n">
         <v>97.910004</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>69.24000000000001</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>48.5630000000001</v>
+        <v>46.304</v>
       </c>
       <c r="J156" t="n">
-        <v>-9093.876922962252</v>
+        <v>-11006.68158743584</v>
       </c>
       <c r="K156" t="n">
         <v>93.370003</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>69.24000000000001</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="D157" t="n">
         <v>49.8</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-5356.575658823157</v>
+        <v>-7692.637173354811</v>
       </c>
       <c r="K157" t="n">
         <v>90.41999800000001</v>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>92.27</v>
+        <v>80</v>
       </c>
       <c r="D158" t="n">
         <v>49.8</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-6852.082291048074</v>
+        <v>-7223.958454214832</v>
       </c>
       <c r="K158" t="n">
         <v>89.59998</v>
@@ -9331,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>92.27</v>
+        <v>80</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -9349,10 +9349,10 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>45.95600000000002</v>
+        <v>45.853</v>
       </c>
       <c r="J159" t="n">
-        <v>-8930.687066929262</v>
+        <v>-5632.25529599301</v>
       </c>
       <c r="K159" t="n">
         <v>78.10002</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>92.27</v>
+        <v>80</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -9405,10 +9405,10 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>45.95600000000002</v>
+        <v>45.853</v>
       </c>
       <c r="J160" t="n">
-        <v>-4168.843134930935</v>
+        <v>-3203.197115279156</v>
       </c>
       <c r="K160" t="n">
         <v>74.150002</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>92.27</v>
+        <v>80</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -9461,10 +9461,10 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>45.95600000000002</v>
+        <v>45.853</v>
       </c>
       <c r="J161" t="n">
-        <v>-3969.192208596503</v>
+        <v>-954.6474268728177</v>
       </c>
       <c r="K161" t="n">
         <v>70.279999</v>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>63.04</v>
+        <v>69</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -9517,10 +9517,10 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>46.051</v>
+        <v>45.949</v>
       </c>
       <c r="J162" t="n">
-        <v>-2842.500151781277</v>
+        <v>1575.967631093227</v>
       </c>
       <c r="K162" t="n">
         <v>71.260002</v>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>63.04</v>
+        <v>69</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>0.26</v>
       </c>
       <c r="F163" t="n">
-        <v>10.4</v>
+        <v>49.8</v>
       </c>
       <c r="G163" t="n">
         <v>46.905</v>
       </c>
       <c r="H163" t="n">
-        <v>39.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>45.93199999999996</v>
+        <v>45.949</v>
       </c>
       <c r="J163" t="n">
-        <v>-2298.769408400001</v>
+        <v>2922.342883906572</v>
       </c>
       <c r="K163" t="n">
         <v>77.910004</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>63.04</v>
+        <v>69</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>45.93199999999996</v>
       </c>
       <c r="J164" t="n">
-        <v>-2132.638773442847</v>
+        <v>-1482.564688282129</v>
       </c>
       <c r="K164" t="n">
         <v>90</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>63.04</v>
+        <v>69</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -9688,7 +9688,7 @@
         <v>46.02699999999999</v>
       </c>
       <c r="J165" t="n">
-        <v>-1630.678229963706</v>
+        <v>-1444.150489146196</v>
       </c>
       <c r="K165" t="n">
         <v>96.93000000000001</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>75.42</v>
+        <v>59</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>75.42</v>
+        <v>59</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>46.99</v>
+        <v>46.977</v>
       </c>
       <c r="H167" t="n">
         <v>49.8</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>75.42</v>
+        <v>59</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>47.65600000000003</v>
+        <v>47.643</v>
       </c>
       <c r="H168" t="n">
         <v>49.8</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>75.42</v>
+        <v>59</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>46.753</v>
+        <v>46.472</v>
       </c>
       <c r="J169" t="n">
         <v>2547.554912832235</v>
